--- a/Plantilla_Resultado/devolución_101_10283320_MEGATIENDAS PRADO_CARTAGENA_DVA POR AVERIA DE NUTRESA 5 CAJAS.xlsx
+++ b/Plantilla_Resultado/devolución_101_10283320_MEGATIENDAS PRADO_CARTAGENA_DVA POR AVERIA DE NUTRESA 5 CAJAS.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -309,24 +309,24 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="114300" y="44450"/>
           <a:ext cx="1085850" cy="828675"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -598,12 +598,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y122"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -751,12 +751,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1049450</t>
+          <t>1056513</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gta. FESTIVAL Minichips Choc Bs. x8</t>
+          <t>Glina. MONTBLANC BaileysBlan 4px10ux80g</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -766,19 +766,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1001554</t>
+          <t>1067747</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gta. SALTINNOEL Dob. Fib. Tc. x3</t>
+          <t>Gta. FESTIVAL Minichips Bsx8 D1 OFT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -788,16 +788,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="n">
-        <v/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1071447</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pasab. LA ESPECIAL Pasas 8plgx12unx35g</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -806,61 +810,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>1071446</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pasab. LA ESPECIAL Pasas 8plgx24unx35g</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>1014868</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>3 Salch. Viena ZENU pr. Esp.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="10">
+      <c r="A10" t="n">
         <v/>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v/>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1063620</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cafe SELLO ROJO 425g 30un</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>UND</t>
@@ -868,64 +872,64 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>1063620</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cafe SELLO ROJO 425g 30un</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>1001573</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Gta. FESTIVAL Fresa  Bs. 12x4</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="13">
+      <c r="A13" t="n">
         <v/>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v/>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1068253</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Glina. GOL 48Bjax3undx28g</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>UND</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -937,17 +941,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1044671</t>
+          <t>1068253</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Brr. TOSH Chocolate NF 16plex6undx23g</t>
+          <t>Glina. GOL 48Bjax3undx28g</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UND</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -959,12 +963,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1068581</t>
+          <t>1044671</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glina. JETJUMBOGOLBolsa10bolx20ux280.5g</t>
+          <t>Brr. TOSH Chocolate NF 16plex6undx23g</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -974,19 +978,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2011706</t>
+          <t>1068581</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Maiz Dulce ZENU x 241 g</t>
+          <t>Glina. JETJUMBOGOLBolsa10bolx20ux280.5g</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -996,19 +1000,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1063612</t>
+          <t>2011706</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cafe SELLO ROJO 212g 57un</t>
+          <t>Maiz Dulce ZENU x 241 g</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1018,19 +1022,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1001568</t>
+          <t>1063612</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gta. SALTINNOEL Rojo Tc. x3</t>
+          <t>Cafe SELLO ROJO 212g 57un</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1040,19 +1044,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1025395</t>
+          <t>1001568</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gta. SALTIN Rojo Tc. x 6 524 g x 24un</t>
+          <t>Gta. SALTINNOEL Rojo Tc. x3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1062,19 +1066,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1064302</t>
+          <t>1025395</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gta. DUCALES TC. X4 430G</t>
+          <t>Gta. SALTIN Rojo Tc. x 6 524 g x 24un</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1084,19 +1088,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1005993</t>
+          <t>1064302</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tornillo COMARRICO clasica x1000g</t>
+          <t>Gta. DUCALES TC. X4 430G</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1106,19 +1110,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1003354</t>
+          <t>1005993</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cafe COLCAFE clasico 85g 24fco.</t>
+          <t>Tornillo COMARRICO clasica x1000g</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1128,19 +1132,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1005990</t>
+          <t>1003354</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Caracol COMARRICO clasica x1000g</t>
+          <t>Cafe COLCAFE clasico 85g 24fco.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1150,19 +1154,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1064996</t>
+          <t>1005990</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gta. TOSH Miel Fit Bs. 9x3 243g</t>
+          <t>Caracol COMARRICO clasica x1000g</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1172,19 +1176,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1005138</t>
+          <t>1064996</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fideo COMARRICO Clasica x 120g</t>
+          <t>Gta. TOSH Miel Fit Bs. 9x3 243g</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1194,19 +1198,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1006471</t>
+          <t>1005138</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Macarron Grueso COMARRICO Clasica x 250g</t>
+          <t>Fideo COMARRICO Clasica x 120g</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1216,7 +1220,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1238,19 +1242,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1005991</t>
+          <t>1006471</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fideo COMARRICO clasica x1000g</t>
+          <t>Macarron Grueso COMARRICO Clasica x 250g</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1260,19 +1264,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1001464</t>
+          <t>1005991</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spaghetti DORIA Clasica x 1000g</t>
+          <t>Fideo COMARRICO clasica x1000g</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1282,19 +1286,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1005147</t>
+          <t>1001464</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Spaghetti COMARRICO Clasica x 1000g</t>
+          <t>Spaghetti DORIA Clasica x 1000g</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1304,19 +1308,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1032682</t>
+          <t>1005147</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gta. FESTIVAL VLL BS. 12X4 OFT2</t>
+          <t>Spaghetti COMARRICO Clasica x 1000g</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1326,19 +1330,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1069946</t>
+          <t>1032682</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glina.GOLMelo Masmelo 28bolx20ux4.g EXP</t>
+          <t>Gta. FESTIVAL VLL BS. 12X4 OFT2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1348,100 +1352,100 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>1001571</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gta. FESTIVAL Vainilla  Bs. 12x4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1069946</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Glina.GOLMelo Masmelo 28bolx20ux4.g EXP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>1071153</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Glina.TIKYS BomBlan Zombie24bolx8ux13.5g</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="36">
+      <c r="A36" t="n">
         <v/>
       </c>
-      <c r="B34" t="n">
+      <c r="B36" t="n">
         <v/>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="37">
+      <c r="A37" t="n">
         <v/>
       </c>
-      <c r="B35" t="n">
+      <c r="B37" t="n">
         <v/>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1033420</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fideo COMARRICO Clasica x 454g</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1038953</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Caracol COMARRICO Clasica x 454g</t>
-        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1457,12 +1461,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1001491</t>
+          <t>1033420</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tornillo DORIA Verduras x 500g</t>
+          <t>Fideo COMARRICO Clasica x 454g</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1472,19 +1476,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1001450</t>
+          <t>1038953</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tornillo DORIA Clasica x 250g</t>
+          <t>Caracol COMARRICO Clasica x 454g</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1494,19 +1498,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1001440</t>
+          <t>1001491</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cabello de angel DORIA Clasica x 250g</t>
+          <t>Tornillo DORIA Verduras x 500g</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1523,12 +1527,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1001449</t>
+          <t>1001450</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rigatoni DORIA Clasica x 250g</t>
+          <t>Tornillo DORIA Clasica x 250g</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1538,19 +1542,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1001454</t>
+          <t>1001440</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Macarron DORIA Clasica x 500g</t>
+          <t>Cabello de angel DORIA Clasica x 250g</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1567,12 +1571,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1001455</t>
+          <t>1001449</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Concha DORIA Clasica x 500g</t>
+          <t>Rigatoni DORIA Clasica x 250g</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1582,19 +1586,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1001441</t>
+          <t>1001454</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Macarron DORIA Clasica x 250g</t>
+          <t>Macarron DORIA Clasica x 500g</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1604,19 +1608,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1006445</t>
+          <t>1001455</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Vermicelli MONTICELLO x 1000g</t>
+          <t>Concha DORIA Clasica x 500g</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1626,19 +1630,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1019997</t>
+          <t>1001441</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fettuccine MONTICELLO x 500g</t>
+          <t>Macarron DORIA Clasica x 250g</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1648,19 +1652,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1023052</t>
+          <t>1006445</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Linguine Nro.7 MONTICELLO x 500g</t>
+          <t>Vermicelli MONTICELLO x 1000g</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1670,19 +1674,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1001482</t>
+          <t>1019997</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Spaghetti MONTICELLO x 500g</t>
+          <t>Fettuccine MONTICELLO x 500g</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1692,19 +1696,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1001483</t>
+          <t>1023052</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fusilli MONTICELLO x 500g</t>
+          <t>Linguine Nro.7 MONTICELLO x 500g</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1714,19 +1718,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1001485</t>
+          <t>1001482</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Penne Rigate MONTICELLO x 500g</t>
+          <t>Spaghetti MONTICELLO x 500g</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1736,19 +1740,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2006351</t>
+          <t>1001483</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tornillos DORIA Sin Gluten x 250g</t>
+          <t>Fusilli MONTICELLO x 500g</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1758,19 +1762,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2006350</t>
+          <t>1001485</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Spaghetti DORIA Sin Gluten x 250g</t>
+          <t>Penne Rigate MONTICELLO x 500g</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1780,19 +1784,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1033421</t>
+          <t>2006351</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Spaghetti COMARRICO Clasica x 454g</t>
+          <t>Tornillos DORIA Sin Gluten x 250g</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1802,19 +1806,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1005137</t>
+          <t>2006350</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Spaghetti COMARRICO Clasica x 120g</t>
+          <t>Spaghetti DORIA Sin Gluten x 250g</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1824,19 +1828,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1005136</t>
+          <t>1033421</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Spaghetti COMARRICO Clasica x 250g</t>
+          <t>Spaghetti COMARRICO Clasica x 454g</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1846,19 +1850,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1005135</t>
+          <t>1005137</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Caracol COMARRICO Clasica x 250g</t>
+          <t>Spaghetti COMARRICO Clasica x 120g</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1868,19 +1872,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1005144</t>
+          <t>1005136</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Coditos COMARRICO Clasica x 250g</t>
+          <t>Spaghetti COMARRICO Clasica x 250g</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1890,19 +1894,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1001438</t>
+          <t>1077366</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Spaghetti DORIA Clasica x 250g</t>
+          <t>Spaghetti COMARRICO Clasica x 250g PM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1912,19 +1916,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1001451</t>
+          <t>1005135</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Bucattini DORIA Clasica x 250g</t>
+          <t>Caracol COMARRICO Clasica x 250g</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1934,19 +1938,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1060378</t>
+          <t>1005144</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lasagna DORIA Prec x 200g</t>
+          <t>Coditos COMARRICO Clasica x 250g</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1956,19 +1960,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1001462</t>
+          <t>1001438</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Spaghetti DORIA Clasica x 500g</t>
+          <t>Spaghetti DORIA Clasica x 250g</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1978,19 +1982,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1001463</t>
+          <t>1021405</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tallarin DORIA Clasica x 500g</t>
+          <t>Spaghetti DORIA Clasica x 250g x 50un</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2000,19 +2004,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1001465</t>
+          <t>1001451</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tallarin DORIA Clasica x 250g</t>
+          <t>Bucattini DORIA Clasica x 250g</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2022,19 +2026,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1049450</t>
+          <t>1060378</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gta. FESTIVAL Minichips Choc Bs. x8</t>
+          <t>Lasagna DORIA Prec x 200g</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2051,12 +2055,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1001554</t>
+          <t>1001462</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gta. SALTINNOEL Dob. Fib. Tc. x3</t>
+          <t>Spaghetti DORIA Clasica x 500g</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2066,16 +2070,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v/>
-      </c>
-      <c r="B66" t="n">
-        <v/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1001463</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Tallarin DORIA Clasica x 500g</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2084,19 +2092,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1014868</t>
+          <t>1001465</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3 Salch. Viena ZENU pr. Esp.</t>
+          <t>Tallarin DORIA Clasica x 250g</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2105,1200 +2113,6 @@
         </is>
       </c>
       <c r="D67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v/>
-      </c>
-      <c r="B68" t="n">
-        <v/>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1063620</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Cafe SELLO ROJO 425g 30un</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1001573</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Gta. FESTIVAL Fresa  Bs. 12x4</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v/>
-      </c>
-      <c r="B71" t="n">
-        <v/>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>1068253</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Glina. GOL 48Bjax3undx28g</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>DIS</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>1044671</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Brr. TOSH Chocolate NF 16plex6undx23g</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>1068581</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Glina. JETJUMBOGOLBolsa10bolx20ux280.5g</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2011706</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Maiz Dulce ZENU x 241 g</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>1063612</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Cafe SELLO ROJO 212g 57un</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>1001568</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Gta. SALTINNOEL Rojo Tc. x3</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>1025395</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Gta. SALTIN Rojo Tc. x 6 524 g x 24un</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>1064302</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Gta. DUCALES TC. X4 430G</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>1005993</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Tornillo COMARRICO clasica x1000g</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>1003354</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Cafe COLCAFE clasico 85g 24fco.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>1005990</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Caracol COMARRICO clasica x1000g</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>1064996</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Gta. TOSH Miel Fit Bs. 9x3 243g</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>1005138</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Fideo COMARRICO Clasica x 120g</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>1006471</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Macarron Grueso COMARRICO Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>1006471</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Macarron Grueso COMARRICO Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>1005991</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Fideo COMARRICO clasica x1000g</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>1001464</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Spaghetti DORIA Clasica x 1000g</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>1005147</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Spaghetti COMARRICO Clasica x 1000g</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>1032682</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Gta. FESTIVAL VLL BS. 12X4 OFT2</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>1069946</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Glina.GOLMelo Masmelo 28bolx20ux4.g EXP</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>1071153</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Glina.TIKYS BomBlan Zombie24bolx8ux13.5g</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v/>
-      </c>
-      <c r="B93" t="n">
-        <v/>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v/>
-      </c>
-      <c r="B94" t="n">
-        <v/>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>1033420</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Fideo COMARRICO Clasica x 454g</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>1038953</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Caracol COMARRICO Clasica x 454g</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>1001491</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Tornillo DORIA Verduras x 500g</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>1001450</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Tornillo DORIA Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>1001440</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Cabello de angel DORIA Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>1001449</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Rigatoni DORIA Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>1001454</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Macarron DORIA Clasica x 500g</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>1001455</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Concha DORIA Clasica x 500g</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>1001441</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Macarron DORIA Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>1006445</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Vermicelli MONTICELLO x 1000g</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>1019997</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Fettuccine MONTICELLO x 500g</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>1023052</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Linguine Nro.7 MONTICELLO x 500g</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>1001482</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Spaghetti MONTICELLO x 500g</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>1001483</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Fusilli MONTICELLO x 500g</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>1001485</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Penne Rigate MONTICELLO x 500g</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2006351</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Tornillos DORIA Sin Gluten x 250g</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2006350</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Spaghetti DORIA Sin Gluten x 250g</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>1033421</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Spaghetti COMARRICO Clasica x 454g</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>1005137</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Spaghetti COMARRICO Clasica x 120g</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>1005136</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Spaghetti COMARRICO Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>1005135</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Caracol COMARRICO Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>1005144</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Coditos COMARRICO Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>1001438</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Spaghetti DORIA Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>1001451</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Bucattini DORIA Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>1060378</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Lasagna DORIA Prec x 200g</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>1001462</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Spaghetti DORIA Clasica x 500g</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>1001463</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Tallarin DORIA Clasica x 500g</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>1001465</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Tallarin DORIA Clasica x 250g</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3309,12 +2123,12 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="E5:E122" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E5:E67" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"D01-AvaladCalid/Rec.Mas.,D02-Avería en el cliente,D03-Baja Rotación,D06-Perdida de vacio,D11-Producto vencido,D07-Producto Contaminado,D09-Producto derretido,D71-Baja Rotación- Buena"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plantilla_Resultado/devolución_101_10283320_MEGATIENDAS PRADO_CARTAGENA_DVA POR AVERIA DE NUTRESA 5 CAJAS.xlsx
+++ b/Plantilla_Resultado/devolución_101_10283320_MEGATIENDAS PRADO_CARTAGENA_DVA POR AVERIA DE NUTRESA 5 CAJAS.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -309,24 +309,24 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="114300" y="44450"/>
           <a:ext cx="1085850" cy="828675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2129,6 +2129,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>